--- a/data-raw/standcounts/rd_20241108_standcounts.xlsx
+++ b/data-raw/standcounts/rd_20241108_standcounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\SEXYrye\data-raw\standcounts\2024_standcounts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au757887\PC_documents\_git-it\SEXYrye\data-raw\standcounts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB33C3E-B698-4629-ACD0-CFD02980B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D33B81-1EFC-4158-87DA-F6F4DBE88A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{43631063-D6A1-4EF1-B7CF-AFD77FA219CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43631063-D6A1-4EF1-B7CF-AFD77FA219CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,16 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="24">
   <si>
-    <t>block_id</t>
-  </si>
-  <si>
-    <t>plot_id</t>
-  </si>
-  <si>
     <t>eu_id</t>
-  </si>
-  <si>
-    <t>plothalf_id</t>
   </si>
   <si>
     <t>n</t>
@@ -108,6 +99,15 @@
   </si>
   <si>
     <t>missing annual rows</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>plothalf</t>
   </si>
 </sst>
 </file>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296A6B0E-1CDB-406A-A00B-3E17283E341B}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,54 +494,54 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="I6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -558,7 +558,7 @@
         <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>21</v>
@@ -584,7 +584,7 @@
         <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>18</v>
@@ -610,7 +610,7 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>30</v>
@@ -636,7 +636,7 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>22</v>
@@ -662,7 +662,7 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>30</v>
@@ -688,7 +688,7 @@
         <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>28</v>
@@ -714,7 +714,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>29</v>
@@ -740,7 +740,7 @@
         <v>104</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>29</v>
@@ -766,7 +766,7 @@
         <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>34</v>
@@ -792,7 +792,7 @@
         <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>34</v>
@@ -818,7 +818,7 @@
         <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>32</v>
@@ -844,7 +844,7 @@
         <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>33</v>
@@ -859,7 +859,7 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>39</v>
@@ -899,7 +899,7 @@
         <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>41</v>
@@ -925,7 +925,7 @@
         <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>22</v>
@@ -940,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
@@ -954,7 +954,7 @@
         <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>20</v>
@@ -980,7 +980,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>36</v>
@@ -1006,7 +1006,7 @@
         <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>36</v>
@@ -1032,7 +1032,7 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>31</v>
@@ -1058,7 +1058,7 @@
         <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>33</v>
@@ -1084,7 +1084,7 @@
         <v>111</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>24</v>
@@ -1110,7 +1110,7 @@
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>36</v>
@@ -1136,7 +1136,7 @@
         <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>44</v>
@@ -1162,7 +1162,7 @@
         <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>37</v>
@@ -1189,7 +1189,7 @@
         <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>41</v>
@@ -1216,7 +1216,7 @@
         <v>201</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>21</v>
@@ -1231,7 +1231,7 @@
         <v>26</v>
       </c>
       <c r="J32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
@@ -1246,7 +1246,7 @@
         <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>36</v>
@@ -1261,7 +1261,7 @@
         <v>32</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
         <v>202</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>36</v>
@@ -1303,7 +1303,7 @@
         <v>203</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>21</v>
@@ -1318,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="J35" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
@@ -1333,7 +1333,7 @@
         <v>203</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>22</v>
@@ -1348,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
@@ -1363,7 +1363,7 @@
         <v>204</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>28</v>
@@ -1390,7 +1390,7 @@
         <v>204</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>24</v>
@@ -1417,7 +1417,7 @@
         <v>205</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>42</v>
@@ -1432,7 +1432,7 @@
         <v>31</v>
       </c>
       <c r="J39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
@@ -1447,7 +1447,7 @@
         <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>17</v>
@@ -1462,7 +1462,7 @@
         <v>27</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
@@ -1477,7 +1477,7 @@
         <v>206</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>25</v>
@@ -1504,7 +1504,7 @@
         <v>206</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>31</v>
@@ -1531,7 +1531,7 @@
         <v>207</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>28</v>
@@ -1558,7 +1558,7 @@
         <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>22</v>
@@ -1585,7 +1585,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>40</v>
@@ -1612,7 +1612,7 @@
         <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>29</v>
@@ -1639,7 +1639,7 @@
         <v>209</v>
       </c>
       <c r="E47" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>28</v>
@@ -1666,7 +1666,7 @@
         <v>209</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>27</v>
@@ -1693,7 +1693,7 @@
         <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>27</v>
@@ -1720,7 +1720,7 @@
         <v>210</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>19</v>
@@ -1747,7 +1747,7 @@
         <v>211</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>30</v>
@@ -1774,7 +1774,7 @@
         <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52">
         <v>30</v>
@@ -1801,7 +1801,7 @@
         <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53">
         <v>31</v>
@@ -1828,7 +1828,7 @@
         <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54">
         <v>18</v>
@@ -1843,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="J54" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.3">
@@ -1858,7 +1858,7 @@
         <v>301</v>
       </c>
       <c r="E55" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>32</v>
@@ -1885,7 +1885,7 @@
         <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56">
         <v>28</v>
@@ -1912,7 +1912,7 @@
         <v>302</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>22</v>
@@ -1939,7 +1939,7 @@
         <v>302</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F58">
         <v>33</v>
@@ -1966,7 +1966,7 @@
         <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F59">
         <v>27</v>
@@ -1993,7 +1993,7 @@
         <v>303</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F60">
         <v>18</v>
@@ -2020,7 +2020,7 @@
         <v>304</v>
       </c>
       <c r="E61" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>21</v>
@@ -2047,7 +2047,7 @@
         <v>304</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F62">
         <v>26</v>
@@ -2074,7 +2074,7 @@
         <v>305</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -2101,7 +2101,7 @@
         <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64">
         <v>23</v>
@@ -2128,7 +2128,7 @@
         <v>306</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F65">
         <v>27</v>
@@ -2155,7 +2155,7 @@
         <v>306</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66">
         <v>32</v>
@@ -2182,7 +2182,7 @@
         <v>307</v>
       </c>
       <c r="E67" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>35</v>
@@ -2209,7 +2209,7 @@
         <v>307</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>28</v>
@@ -2236,7 +2236,7 @@
         <v>308</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>27</v>
@@ -2263,7 +2263,7 @@
         <v>308</v>
       </c>
       <c r="E70" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>30</v>
@@ -2290,7 +2290,7 @@
         <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>25</v>
@@ -2317,22 +2317,22 @@
         <v>309</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I72" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.3">
@@ -2347,7 +2347,7 @@
         <v>310</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>22</v>
@@ -2374,7 +2374,7 @@
         <v>310</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F74">
         <v>19</v>
@@ -2401,7 +2401,7 @@
         <v>311</v>
       </c>
       <c r="E75" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>25</v>
@@ -2428,7 +2428,7 @@
         <v>311</v>
       </c>
       <c r="E76" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F76">
         <v>32</v>
@@ -2455,7 +2455,7 @@
         <v>312</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F77">
         <v>56</v>
@@ -2482,7 +2482,7 @@
         <v>312</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F78">
         <v>40</v>
@@ -2509,7 +2509,7 @@
         <v>401</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F79">
         <v>34</v>
@@ -2536,7 +2536,7 @@
         <v>401</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F80">
         <v>46</v>
@@ -2563,7 +2563,7 @@
         <v>402</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81">
         <v>23</v>
@@ -2590,7 +2590,7 @@
         <v>402</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F82">
         <v>41</v>
@@ -2605,7 +2605,7 @@
         <v>16</v>
       </c>
       <c r="J82" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
         <v>403</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F83">
         <v>25</v>
@@ -2647,7 +2647,7 @@
         <v>403</v>
       </c>
       <c r="E84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84">
         <v>29</v>
@@ -2674,7 +2674,7 @@
         <v>404</v>
       </c>
       <c r="E85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>33</v>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="J85" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.3">
@@ -2704,7 +2704,7 @@
         <v>404</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F86">
         <v>31</v>
@@ -2731,7 +2731,7 @@
         <v>405</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>32</v>
@@ -2758,7 +2758,7 @@
         <v>405</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88">
         <v>19</v>
@@ -2785,7 +2785,7 @@
         <v>406</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89">
         <v>21</v>
@@ -2812,7 +2812,7 @@
         <v>406</v>
       </c>
       <c r="E90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F90">
         <v>30</v>
@@ -2827,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.3">
@@ -2842,7 +2842,7 @@
         <v>407</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F91">
         <v>28</v>
@@ -2869,7 +2869,7 @@
         <v>407</v>
       </c>
       <c r="E92" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F92">
         <v>40</v>
@@ -2896,7 +2896,7 @@
         <v>408</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>19</v>
@@ -2923,7 +2923,7 @@
         <v>408</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F94">
         <v>27</v>
@@ -2950,7 +2950,7 @@
         <v>409</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>27</v>
@@ -2977,7 +2977,7 @@
         <v>409</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F96">
         <v>29</v>
@@ -3004,7 +3004,7 @@
         <v>410</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F97">
         <v>39</v>
@@ -3031,7 +3031,7 @@
         <v>410</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F98">
         <v>36</v>
@@ -3058,7 +3058,7 @@
         <v>411</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F99">
         <v>24</v>
@@ -3085,7 +3085,7 @@
         <v>411</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F100">
         <v>26</v>
@@ -3112,7 +3112,7 @@
         <v>412</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101">
         <v>39</v>
@@ -3139,7 +3139,7 @@
         <v>412</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F102">
         <v>31</v>
